--- a/Categorization of selected studies.xlsx
+++ b/Categorization of selected studies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef56829152d776a3/Área de Trabalho/CVM_Monografia/GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{086FB94C-5A45-4DBB-8E6D-FE49547BBA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0575943-99C8-4305-B383-DE0AA835663D}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{086FB94C-5A45-4DBB-8E6D-FE49547BBA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{831D19BC-0CFD-46F2-8AD2-2AE5CE5067EB}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15720" tabRatio="729" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="486">
   <si>
     <t>Title</t>
   </si>
@@ -219,9 +219,6 @@
     <t>Polaris</t>
   </si>
   <si>
-    <t>4 - Survey</t>
-  </si>
-  <si>
     <t>IEEE Transactions on Visualization and Computer Graphics</t>
   </si>
   <si>
@@ -276,12 +273,6 @@
     <t>Asia</t>
   </si>
   <si>
-    <t>3 - Performance Analisys - Avaliação empirica de Sistemas de Recomendação de visualização.</t>
-  </si>
-  <si>
-    <t>5 - Taxonomy and Conceptual Model - caracterizações sistemáticas de um espaço particular que sustentam o pensamento dentro desse tópico</t>
-  </si>
-  <si>
     <t>ACM</t>
   </si>
   <si>
@@ -591,15 +582,6 @@
     <t>Recommendation tools mentioned</t>
   </si>
   <si>
-    <t>3-Proposta de nova metodologia / algoritmo para VisRec</t>
-  </si>
-  <si>
-    <t>5-Survey</t>
-  </si>
-  <si>
-    <t>6-Taxonomia - caracterização sistemática de sistemas</t>
-  </si>
-  <si>
     <t>Workshop on Data Systems for Interactive Analytics (DSIA). // ACM SIGMOD Record. Special Interest Group on Management of Data.</t>
   </si>
   <si>
@@ -975,9 +957,6 @@
     <t>APT, Data2Vis, VizML, DeepEye, ShowMe, Voyager, Voyager2, Sage, Draco, Table2Chart</t>
   </si>
   <si>
-    <t>4-Avaliação empírica de sistemas VisRec</t>
-  </si>
-  <si>
     <t>SeeDB, DeepEye, MuVe, VizDeck, Voyager2, Show Me</t>
   </si>
   <si>
@@ -1179,9 +1158,6 @@
     <t>Proceedings of the VLDB Endowment Volume 15 Issue 3 November 2021 pp 727–738</t>
   </si>
   <si>
-    <t>1:Desenvolvimento de sistema de VisRec, 3:Proposta de nova metodologia ou algoritmo para VisRec, 4:Avaliação empírica ou técnica de sistemas VisRec, 5:Survey, 6:Taxonomia, 8: Framework para comparar ou avaliar algoritmos ou sistemas VisReck</t>
-  </si>
-  <si>
     <t>Link on GitHub/Web</t>
   </si>
   <si>
@@ -1234,15 +1210,6 @@
   </si>
   <si>
     <t>https://github.com/microsoft/Table2Charts</t>
-  </si>
-  <si>
-    <t>1-Desenvolvimento de sistema de VisRec; 2-Implementação de protótipo para VisRec (os dois no 1)</t>
-  </si>
-  <si>
-    <t>1- Toolkit / language / Architecture- Projeto de uma nova plataforma para recomendação de visualização de dados;; 2 - Interaction Technique - Proposta de metodologia para sistemas de recomendação.</t>
-  </si>
-  <si>
-    <t>2 - Framework para comparar ou avaliar algoritmos e sistemas de VisRec: Projeto ou desenvolvimento de framework para avaliar e/ou comparar algoritmos, ferramentas ou sistemas VisRec.</t>
   </si>
   <si>
     <t>Bar, Bubble, Cartogram, Choropleth Map, Clustered Bar, Connected Dot, Connection Map, Density Plot, Dot Map, Flow Map, Heat Map, Histogram, line, Network, Pie, Portional Map, radar Plot, Scatter, SPLOM, Slope Graph, Small Multiples, Stacked Area, Stacked Bar, Stacked Line, Table, Timeline, Treemap, Parallel Coordinates, Sankey Diagram</t>
@@ -1713,7 +1680,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1757,20 +1724,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1781,7 +1742,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1807,6 +1767,10 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -2077,7 +2041,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2094,54 +2058,54 @@
     <col min="12" max="12" width="16.88671875" customWidth="1"/>
     <col min="13" max="13" width="32.77734375" customWidth="1"/>
     <col min="14" max="14" width="20.33203125" customWidth="1"/>
-    <col min="15" max="15" width="16" customWidth="1"/>
+    <col min="15" max="15" width="39.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.5" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="B1" s="29" t="s">
+        <v>485</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>384</v>
-      </c>
-      <c r="D1" s="29" t="s">
+      <c r="C1" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>474</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>475</v>
-      </c>
-      <c r="I1" s="29" t="s">
+      <c r="F1" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>464</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="29" t="s">
-        <v>483</v>
-      </c>
-      <c r="L1" s="31" t="s">
-        <v>484</v>
+      <c r="K1" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>473</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15.6" customHeight="1">
@@ -2149,31 +2113,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="D2" t="s">
         <v>72</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="D2" t="s">
-        <v>73</v>
       </c>
       <c r="E2">
         <v>2022</v>
       </c>
       <c r="F2" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G2" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="H2" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s">
         <v>5</v>
@@ -2181,14 +2145,14 @@
       <c r="L2">
         <v>1</v>
       </c>
-      <c r="M2" s="28" t="s">
-        <v>64</v>
+      <c r="M2" t="s">
+        <v>63</v>
       </c>
       <c r="N2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O2" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
@@ -2207,16 +2171,16 @@
         <v>28</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="D3" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="E3">
         <v>2019</v>
       </c>
       <c r="F3" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G3" t="s">
         <v>61</v>
@@ -2233,17 +2197,17 @@
       <c r="K3" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="27" t="s">
-        <v>485</v>
-      </c>
-      <c r="M3" s="28" t="s">
-        <v>317</v>
+      <c r="L3" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="M3" t="s">
+        <v>310</v>
       </c>
       <c r="N3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O3" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="P3" s="6"/>
       <c r="Q3" s="12"/>
@@ -2257,7 +2221,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -2266,10 +2230,10 @@
         <v>2022</v>
       </c>
       <c r="F4" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G4" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>
@@ -2286,14 +2250,14 @@
       <c r="L4">
         <v>1</v>
       </c>
-      <c r="M4" s="28" t="s">
-        <v>64</v>
+      <c r="M4" t="s">
+        <v>63</v>
       </c>
       <c r="N4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O4" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -2313,7 +2277,7 @@
         <v>45</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>60</v>
@@ -2322,13 +2286,13 @@
         <v>2021</v>
       </c>
       <c r="F5" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="G5" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="H5" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>59</v>
@@ -2342,14 +2306,14 @@
       <c r="L5">
         <v>1</v>
       </c>
-      <c r="M5" s="28" t="s">
-        <v>64</v>
+      <c r="M5" t="s">
+        <v>63</v>
       </c>
       <c r="N5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O5" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -2360,7 +2324,7 @@
         <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="D6" t="s">
         <v>46</v>
@@ -2369,10 +2333,10 @@
         <v>2022</v>
       </c>
       <c r="F6" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="G6" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="H6" t="s">
         <v>48</v>
@@ -2386,17 +2350,17 @@
       <c r="K6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="27" t="s">
-        <v>486</v>
-      </c>
-      <c r="M6" s="28" t="s">
-        <v>64</v>
+      <c r="L6" s="24" t="s">
+        <v>475</v>
+      </c>
+      <c r="M6" t="s">
+        <v>63</v>
       </c>
       <c r="N6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O6" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -2407,19 +2371,19 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E7">
         <v>2022</v>
       </c>
       <c r="F7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="G7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H7" t="s">
         <v>23</v>
@@ -2436,14 +2400,14 @@
       <c r="L7">
         <v>1</v>
       </c>
-      <c r="M7" s="28" t="s">
-        <v>64</v>
+      <c r="M7" t="s">
+        <v>63</v>
       </c>
       <c r="N7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O7" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
@@ -2458,7 +2422,7 @@
         <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="D8" t="s">
         <v>52</v>
@@ -2467,13 +2431,13 @@
         <v>2019</v>
       </c>
       <c r="F8" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G8" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="H8" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>54</v>
@@ -2487,14 +2451,14 @@
       <c r="L8">
         <v>1</v>
       </c>
-      <c r="M8" s="28" t="s">
-        <v>64</v>
+      <c r="M8" t="s">
+        <v>63</v>
       </c>
       <c r="N8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O8" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="P8" s="13"/>
     </row>
@@ -2506,7 +2470,7 @@
         <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="D9" t="s">
         <v>55</v>
@@ -2515,7 +2479,7 @@
         <v>2020</v>
       </c>
       <c r="F9" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="G9" t="s">
         <v>62</v>
@@ -2535,14 +2499,14 @@
       <c r="L9">
         <v>1</v>
       </c>
-      <c r="M9" s="28" t="s">
-        <v>330</v>
+      <c r="M9" t="s">
+        <v>323</v>
       </c>
       <c r="N9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O9" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -2550,31 +2514,31 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>402</v>
+      </c>
+      <c r="D10" t="s">
         <v>66</v>
-      </c>
-      <c r="C10" t="s">
-        <v>413</v>
-      </c>
-      <c r="D10" t="s">
-        <v>67</v>
       </c>
       <c r="E10">
         <v>2022</v>
       </c>
       <c r="F10" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G10" t="s">
         <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K10" t="s">
         <v>5</v>
@@ -2582,14 +2546,14 @@
       <c r="L10">
         <v>1</v>
       </c>
-      <c r="M10" s="28" t="s">
-        <v>331</v>
+      <c r="M10" t="s">
+        <v>324</v>
       </c>
       <c r="N10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O10" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="P10" s="12"/>
     </row>
@@ -2598,31 +2562,31 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
+        <v>402</v>
+      </c>
+      <c r="D11" t="s">
         <v>69</v>
-      </c>
-      <c r="C11" t="s">
-        <v>413</v>
-      </c>
-      <c r="D11" t="s">
-        <v>70</v>
       </c>
       <c r="E11">
         <v>2022</v>
       </c>
       <c r="F11" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="G11" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="H11" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K11" t="s">
         <v>5</v>
@@ -2630,14 +2594,14 @@
       <c r="L11">
         <v>1</v>
       </c>
-      <c r="M11" s="28" t="s">
-        <v>64</v>
+      <c r="M11" t="s">
+        <v>63</v>
       </c>
       <c r="N11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O11" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -2648,7 +2612,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="D12" t="s">
         <v>36</v>
@@ -2657,10 +2621,10 @@
         <v>2019</v>
       </c>
       <c r="F12" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="G12" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="H12" t="s">
         <v>38</v>
@@ -2677,14 +2641,14 @@
       <c r="L12">
         <v>3</v>
       </c>
-      <c r="M12" s="28" t="s">
-        <v>336</v>
+      <c r="M12" t="s">
+        <v>329</v>
       </c>
       <c r="N12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O12" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="Q12" s="8"/>
     </row>
@@ -2693,46 +2657,46 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E13">
         <v>2019</v>
       </c>
       <c r="F13" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="G13" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="H13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
-      <c r="M13" s="28" t="s">
-        <v>285</v>
+      <c r="M13" t="s">
+        <v>279</v>
       </c>
       <c r="N13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O13" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -2740,46 +2704,46 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E14">
         <v>2021</v>
       </c>
       <c r="F14" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="G14" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H14" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
-      <c r="M14" s="28" t="s">
-        <v>341</v>
+      <c r="M14" t="s">
+        <v>334</v>
       </c>
       <c r="N14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O14" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -2787,46 +2751,46 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" t="s">
+        <v>402</v>
+      </c>
+      <c r="D15" t="s">
         <v>93</v>
-      </c>
-      <c r="C15" t="s">
-        <v>413</v>
-      </c>
-      <c r="D15" t="s">
-        <v>96</v>
       </c>
       <c r="E15">
         <v>2017</v>
       </c>
       <c r="F15" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G15" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="H15" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L15">
         <v>3</v>
       </c>
-      <c r="M15" s="28" t="s">
-        <v>190</v>
+      <c r="M15" t="s">
+        <v>184</v>
       </c>
       <c r="N15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O15" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -2834,46 +2798,46 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C16" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="D16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E16">
         <v>2022</v>
       </c>
       <c r="F16" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="G16" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="H16" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J16" t="s">
+        <v>466</v>
+      </c>
+      <c r="K16" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="M16" t="s">
         <v>477</v>
       </c>
-      <c r="K16" t="s">
-        <v>84</v>
-      </c>
-      <c r="L16" s="27" t="s">
-        <v>485</v>
-      </c>
-      <c r="M16" s="28" t="s">
-        <v>488</v>
-      </c>
       <c r="N16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O16" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="16.5" customHeight="1">
@@ -2881,46 +2845,46 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C17" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E17">
         <v>2018</v>
       </c>
       <c r="F17" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="G17" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="H17" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
-      <c r="M17" s="28" t="s">
-        <v>350</v>
+      <c r="M17" t="s">
+        <v>343</v>
       </c>
       <c r="N17" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="O17" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2928,46 +2892,46 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C18" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="D18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E18">
         <v>2020</v>
       </c>
       <c r="F18" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G18" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="H18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K18" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
-      <c r="M18" s="28" t="s">
-        <v>285</v>
+      <c r="M18" t="s">
+        <v>279</v>
       </c>
       <c r="N18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O18" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2975,46 +2939,46 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" t="s">
+        <v>402</v>
+      </c>
+      <c r="D19" t="s">
         <v>115</v>
-      </c>
-      <c r="C19" t="s">
-        <v>413</v>
-      </c>
-      <c r="D19" t="s">
-        <v>118</v>
       </c>
       <c r="E19">
         <v>2022</v>
       </c>
       <c r="F19" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G19" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="H19" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
-      <c r="M19" s="28" t="s">
-        <v>358</v>
+      <c r="M19" t="s">
+        <v>351</v>
       </c>
       <c r="N19" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O19" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -3022,46 +2986,46 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C20" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="D20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E20">
         <v>2017</v>
       </c>
       <c r="F20" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="G20" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="H20" t="s">
         <v>12</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="J20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
-      <c r="M20" s="28" t="s">
-        <v>98</v>
+      <c r="M20" t="s">
+        <v>95</v>
       </c>
       <c r="N20" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="O20" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.6" customHeight="1">
@@ -3069,46 +3033,46 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" t="s">
+        <v>402</v>
+      </c>
+      <c r="D21" t="s">
         <v>120</v>
-      </c>
-      <c r="C21" t="s">
-        <v>413</v>
-      </c>
-      <c r="D21" t="s">
-        <v>123</v>
       </c>
       <c r="E21">
         <v>2020</v>
       </c>
       <c r="F21" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G21" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="H21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K21" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L21">
         <v>4</v>
       </c>
-      <c r="M21" s="28" t="s">
-        <v>122</v>
+      <c r="M21" t="s">
+        <v>119</v>
       </c>
       <c r="N21" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O21" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -3116,46 +3080,46 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C22" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="D22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E22">
         <v>2022</v>
       </c>
       <c r="F22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G22" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="H22" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L22">
         <v>4</v>
       </c>
-      <c r="M22" s="28" t="s">
-        <v>380</v>
+      <c r="M22" t="s">
+        <v>373</v>
       </c>
       <c r="N22" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O22" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -3163,46 +3127,46 @@
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E23">
         <v>2021</v>
       </c>
       <c r="F23" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="H23" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J23" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K23" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
-      <c r="M23" s="28" t="s">
-        <v>381</v>
+      <c r="M23" t="s">
+        <v>374</v>
       </c>
       <c r="N23" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="O23" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -3210,31 +3174,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C24" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="D24" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E24">
         <v>2022</v>
       </c>
       <c r="F24" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="G24" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="H24" t="s">
         <v>12</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K24" t="s">
         <v>5</v>
@@ -3242,14 +3206,14 @@
       <c r="L24">
         <v>1</v>
       </c>
-      <c r="M24" s="28" t="s">
-        <v>138</v>
+      <c r="M24" t="s">
+        <v>135</v>
       </c>
       <c r="N24" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="O24" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -3257,46 +3221,46 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="D25" t="s">
         <v>141</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="D25" t="s">
-        <v>144</v>
       </c>
       <c r="E25">
         <v>2022</v>
       </c>
       <c r="F25" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="G25" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="H25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J25" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K25" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
-      <c r="M25" s="28" t="s">
-        <v>382</v>
+      <c r="M25" t="s">
+        <v>375</v>
       </c>
       <c r="N25" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O25" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="P25" s="14"/>
     </row>
@@ -3305,31 +3269,31 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C26" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="D26" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E26">
         <v>2022</v>
       </c>
       <c r="F26" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="G26" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="H26" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="J26" s="23" t="s">
-        <v>476</v>
+        <v>145</v>
+      </c>
+      <c r="J26" s="21" t="s">
+        <v>465</v>
       </c>
       <c r="K26" t="s">
         <v>5</v>
@@ -3337,14 +3301,14 @@
       <c r="L26">
         <v>1</v>
       </c>
-      <c r="M26" s="28" t="s">
-        <v>64</v>
+      <c r="M26" t="s">
+        <v>63</v>
       </c>
       <c r="N26" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O26" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -3352,46 +3316,46 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C27" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="D27" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E27">
         <v>2022</v>
       </c>
       <c r="F27" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="G27" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="H27" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I27" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J27" t="s">
+        <v>154</v>
+      </c>
+      <c r="K27" t="s">
         <v>152</v>
-      </c>
-      <c r="J27" t="s">
-        <v>157</v>
-      </c>
-      <c r="K27" t="s">
-        <v>155</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
-      <c r="M27" s="28" t="s">
-        <v>154</v>
+      <c r="M27" t="s">
+        <v>151</v>
       </c>
       <c r="N27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O27" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -3399,31 +3363,31 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" t="s">
+        <v>402</v>
+      </c>
+      <c r="D28" t="s">
         <v>158</v>
-      </c>
-      <c r="C28" t="s">
-        <v>413</v>
-      </c>
-      <c r="D28" t="s">
-        <v>161</v>
       </c>
       <c r="E28">
         <v>2022</v>
       </c>
       <c r="F28" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G28" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="H28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J28" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K28" t="s">
         <v>5</v>
@@ -3431,14 +3395,14 @@
       <c r="L28">
         <v>3</v>
       </c>
-      <c r="M28" s="28" t="s">
-        <v>64</v>
+      <c r="M28" t="s">
+        <v>63</v>
       </c>
       <c r="N28" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="O28" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -3446,46 +3410,46 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" t="s">
+        <v>390</v>
+      </c>
+      <c r="D29" t="s">
         <v>163</v>
-      </c>
-      <c r="C29" t="s">
-        <v>398</v>
-      </c>
-      <c r="D29" t="s">
-        <v>166</v>
       </c>
       <c r="E29">
         <v>2022</v>
       </c>
       <c r="F29" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="G29" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="H29" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J29" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K29" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
-      <c r="M29" s="28" t="s">
-        <v>164</v>
+      <c r="M29" t="s">
+        <v>161</v>
       </c>
       <c r="N29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O29" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -3493,46 +3457,46 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>167</v>
+      </c>
+      <c r="C30" t="s">
+        <v>402</v>
+      </c>
+      <c r="D30" t="s">
         <v>170</v>
-      </c>
-      <c r="C30" t="s">
-        <v>413</v>
-      </c>
-      <c r="D30" t="s">
-        <v>173</v>
       </c>
       <c r="E30">
         <v>2021</v>
       </c>
       <c r="F30" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="G30" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H30" t="s">
-        <v>175</v>
-      </c>
-      <c r="I30" s="32" t="s">
         <v>172</v>
       </c>
+      <c r="I30" s="28" t="s">
+        <v>169</v>
+      </c>
       <c r="J30" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K30" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
-      <c r="M30" s="28" t="s">
-        <v>171</v>
+      <c r="M30" t="s">
+        <v>168</v>
       </c>
       <c r="N30" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="O30" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -3540,46 +3504,46 @@
         <v>30</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E31">
         <v>2021</v>
       </c>
       <c r="F31" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G31" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H31" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J31" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K31" t="s">
-        <v>155</v>
-      </c>
-      <c r="L31" s="27" t="s">
-        <v>485</v>
-      </c>
-      <c r="M31" s="28" t="s">
-        <v>154</v>
+        <v>152</v>
+      </c>
+      <c r="L31" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="M31" t="s">
+        <v>151</v>
       </c>
       <c r="N31" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O31" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -3587,46 +3551,46 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C32" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="D32" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E32">
         <v>2019</v>
       </c>
       <c r="F32" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="G32" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="H32" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J32" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K32" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
-      <c r="M32" s="28" t="s">
-        <v>154</v>
+      <c r="M32" t="s">
+        <v>151</v>
       </c>
       <c r="N32" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="O32" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3634,13 +3598,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C33" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D33" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E33">
         <v>2021</v>
@@ -3649,16 +3613,16 @@
         <v>11</v>
       </c>
       <c r="G33" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="H33" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="J33" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="K33" t="s">
         <v>5</v>
@@ -3666,14 +3630,14 @@
       <c r="L33">
         <v>1</v>
       </c>
-      <c r="M33" s="28" t="s">
-        <v>185</v>
+      <c r="M33" t="s">
+        <v>182</v>
       </c>
       <c r="N33" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O33" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3681,31 +3645,31 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C34" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D34" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E34">
         <v>2019</v>
       </c>
       <c r="F34" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G34" t="s">
         <v>62</v>
       </c>
       <c r="H34" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="J34" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="K34" t="s">
         <v>5</v>
@@ -3713,14 +3677,14 @@
       <c r="L34">
         <v>1</v>
       </c>
-      <c r="M34" s="28" t="s">
-        <v>489</v>
+      <c r="M34" t="s">
+        <v>478</v>
       </c>
       <c r="N34" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O34" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3734,19 +3698,19 @@
         <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E35">
         <v>2021</v>
       </c>
       <c r="F35" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G35" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H35" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>26</v>
@@ -3760,14 +3724,14 @@
       <c r="L35">
         <v>1</v>
       </c>
-      <c r="M35" s="28" t="s">
-        <v>185</v>
+      <c r="M35" t="s">
+        <v>182</v>
       </c>
       <c r="N35" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O35" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
@@ -3778,46 +3742,46 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C36" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="D36" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E36">
         <v>2022</v>
       </c>
       <c r="F36" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G36" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H36" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J36" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="K36" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
-      <c r="M36" s="28" t="s">
-        <v>154</v>
+      <c r="M36" t="s">
+        <v>151</v>
       </c>
       <c r="N36" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O36" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15" customHeight="1">
@@ -3825,46 +3789,46 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C37" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="D37" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E37">
         <v>2020</v>
       </c>
       <c r="F37" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G37" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="H37" t="s">
-        <v>214</v>
-      </c>
-      <c r="I37" s="32" t="s">
-        <v>215</v>
+        <v>208</v>
+      </c>
+      <c r="I37" s="28" t="s">
+        <v>209</v>
       </c>
       <c r="J37" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="K37" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
-      <c r="M37" s="28" t="s">
-        <v>154</v>
+      <c r="M37" t="s">
+        <v>151</v>
       </c>
       <c r="N37" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O37" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3872,46 +3836,46 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C38" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="D38" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E38">
         <v>2021</v>
       </c>
       <c r="F38" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G38" t="s">
         <v>22</v>
       </c>
       <c r="H38" t="s">
-        <v>222</v>
-      </c>
-      <c r="I38" s="32" t="s">
-        <v>218</v>
+        <v>216</v>
+      </c>
+      <c r="I38" s="28" t="s">
+        <v>212</v>
       </c>
       <c r="J38" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="K38" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L38">
         <v>4</v>
       </c>
-      <c r="M38" s="28" t="s">
-        <v>285</v>
+      <c r="M38" t="s">
+        <v>279</v>
       </c>
       <c r="N38" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O38" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3919,46 +3883,46 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C39" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="D39" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E39">
         <v>2021</v>
       </c>
       <c r="F39" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G39" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="H39" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="J39" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="K39" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L39">
         <v>1</v>
       </c>
-      <c r="M39" s="28" t="s">
-        <v>226</v>
+      <c r="M39" t="s">
+        <v>220</v>
       </c>
       <c r="N39" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="O39" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3966,46 +3930,46 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C40" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="D40" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E40">
         <v>2019</v>
       </c>
       <c r="F40" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G40" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="H40" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="J40" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="K40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L40">
         <v>1</v>
       </c>
-      <c r="M40" s="28" t="s">
-        <v>231</v>
+      <c r="M40" t="s">
+        <v>225</v>
       </c>
       <c r="N40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O40" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -4013,46 +3977,46 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C41" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="D41" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E41">
         <v>2022</v>
       </c>
       <c r="F41" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G41" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="H41" t="s">
-        <v>244</v>
-      </c>
-      <c r="I41" s="32" t="s">
-        <v>241</v>
+        <v>238</v>
+      </c>
+      <c r="I41" s="28" t="s">
+        <v>235</v>
       </c>
       <c r="J41" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="K41" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="L41">
         <v>1</v>
       </c>
-      <c r="M41" s="28" t="s">
-        <v>154</v>
+      <c r="M41" t="s">
+        <v>151</v>
       </c>
       <c r="N41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O41" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -4060,46 +4024,46 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C42" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="D42" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E42">
         <v>2022</v>
       </c>
       <c r="F42" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="G42" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="H42" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="J42" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="K42" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L42">
         <v>1</v>
       </c>
-      <c r="M42" s="28" t="s">
-        <v>246</v>
+      <c r="M42" t="s">
+        <v>240</v>
       </c>
       <c r="N42" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="O42" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -4107,46 +4071,46 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C43" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="D43" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E43">
         <v>2022</v>
       </c>
       <c r="F43" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G43" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H43" t="s">
-        <v>258</v>
-      </c>
-      <c r="I43" s="32" t="s">
-        <v>256</v>
-      </c>
-      <c r="J43" s="24" t="s">
-        <v>478</v>
+        <v>252</v>
+      </c>
+      <c r="I43" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="J43" s="22" t="s">
+        <v>467</v>
       </c>
       <c r="K43" t="s">
-        <v>165</v>
-      </c>
-      <c r="L43" s="27" t="s">
-        <v>485</v>
-      </c>
-      <c r="M43" s="28" t="s">
-        <v>255</v>
+        <v>162</v>
+      </c>
+      <c r="L43" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="M43" t="s">
+        <v>249</v>
       </c>
       <c r="N43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O43" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -4154,46 +4118,46 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D44" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E44">
         <v>2021</v>
       </c>
       <c r="F44" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G44" t="s">
         <v>62</v>
       </c>
       <c r="H44" t="s">
-        <v>266</v>
-      </c>
-      <c r="I44" s="32" t="s">
-        <v>262</v>
+        <v>260</v>
+      </c>
+      <c r="I44" s="28" t="s">
+        <v>256</v>
       </c>
       <c r="J44" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="K44" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L44">
         <v>1</v>
       </c>
-      <c r="M44" s="28" t="s">
-        <v>263</v>
+      <c r="M44" t="s">
+        <v>257</v>
       </c>
       <c r="N44" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O44" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -4201,46 +4165,46 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C45" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="D45" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E45">
         <v>2022</v>
       </c>
       <c r="F45" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G45" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="H45" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="J45" s="25" t="s">
-        <v>479</v>
+        <v>263</v>
+      </c>
+      <c r="J45" s="23" t="s">
+        <v>468</v>
       </c>
       <c r="K45" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="L45">
         <v>4</v>
       </c>
-      <c r="M45" s="28" t="s">
-        <v>154</v>
+      <c r="M45" t="s">
+        <v>151</v>
       </c>
       <c r="N45" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O45" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4248,46 +4212,46 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C46" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="D46" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E46">
         <v>2022</v>
       </c>
       <c r="F46" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G46" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="H46" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="J46" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="K46" t="s">
-        <v>84</v>
-      </c>
-      <c r="L46" s="27" t="s">
-        <v>487</v>
-      </c>
-      <c r="M46" s="28" t="s">
-        <v>274</v>
+        <v>81</v>
+      </c>
+      <c r="L46" s="24" t="s">
+        <v>476</v>
+      </c>
+      <c r="M46" t="s">
+        <v>268</v>
       </c>
       <c r="N46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O46" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4298,7 +4262,7 @@
         <v>40</v>
       </c>
       <c r="C47" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="D47" t="s">
         <v>41</v>
@@ -4307,19 +4271,19 @@
         <v>2022</v>
       </c>
       <c r="F47" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G47" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H47" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>39</v>
       </c>
       <c r="J47" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="K47" t="s">
         <v>5</v>
@@ -4327,14 +4291,14 @@
       <c r="L47">
         <v>1</v>
       </c>
-      <c r="M47" s="28" t="s">
-        <v>64</v>
+      <c r="M47" t="s">
+        <v>63</v>
       </c>
       <c r="N47" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O47" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4342,49 +4306,49 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C48" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="D48" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E48">
         <v>2022</v>
       </c>
       <c r="F48" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G48" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H48" t="s">
-        <v>291</v>
-      </c>
-      <c r="I48" s="32" t="s">
-        <v>284</v>
+        <v>285</v>
+      </c>
+      <c r="I48" s="28" t="s">
+        <v>278</v>
       </c>
       <c r="J48" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="K48" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L48">
         <v>1</v>
       </c>
-      <c r="M48" s="28" t="s">
-        <v>285</v>
+      <c r="M48" t="s">
+        <v>279</v>
       </c>
       <c r="N48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O48" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4392,7 +4356,7 @@
         <v>42</v>
       </c>
       <c r="C49" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="D49" t="s">
         <v>50</v>
@@ -4401,7 +4365,7 @@
         <v>2021</v>
       </c>
       <c r="F49" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G49" t="s">
         <v>13</v>
@@ -4413,7 +4377,7 @@
         <v>49</v>
       </c>
       <c r="J49" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="K49" t="s">
         <v>5</v>
@@ -4421,1000 +4385,606 @@
       <c r="L49">
         <v>1</v>
       </c>
-      <c r="M49" s="28" t="s">
-        <v>293</v>
+      <c r="M49" t="s">
+        <v>287</v>
       </c>
       <c r="N49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O49" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="P49" s="15"/>
       <c r="Q49" s="15"/>
       <c r="R49" s="15"/>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:18">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="22" t="s">
-        <v>413</v>
-      </c>
-      <c r="D50" s="22" t="s">
+      <c r="C50" t="s">
+        <v>402</v>
+      </c>
+      <c r="D50" t="s">
         <v>17</v>
       </c>
-      <c r="E50" s="22">
+      <c r="E50">
         <v>2022</v>
       </c>
-      <c r="F50" s="22" t="s">
-        <v>296</v>
-      </c>
-      <c r="G50" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="H50" s="22" t="s">
+      <c r="F50" t="s">
+        <v>290</v>
+      </c>
+      <c r="G50" t="s">
+        <v>291</v>
+      </c>
+      <c r="H50" t="s">
         <v>19</v>
       </c>
-      <c r="I50" s="33" t="s">
+      <c r="I50" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J50" s="22" t="s">
+      <c r="J50" t="s">
         <v>18</v>
       </c>
-      <c r="K50" s="22" t="s">
+      <c r="K50" t="s">
         <v>5</v>
       </c>
-      <c r="L50" s="22">
+      <c r="L50">
         <v>1</v>
       </c>
-      <c r="M50" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="N50" s="22" t="s">
-        <v>81</v>
+      <c r="M50" t="s">
+        <v>289</v>
+      </c>
+      <c r="N50" t="s">
+        <v>80</v>
       </c>
       <c r="O50" t="s">
-        <v>494</v>
-      </c>
-      <c r="P50" s="22"/>
-      <c r="Q50" s="22"/>
-      <c r="R50" s="22"/>
-      <c r="S50" s="22"/>
-      <c r="T50" s="21"/>
-    </row>
-    <row r="51" spans="1:20">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" t="s">
+        <v>292</v>
+      </c>
+      <c r="C51" t="s">
+        <v>402</v>
+      </c>
+      <c r="D51" t="s">
+        <v>293</v>
+      </c>
+      <c r="E51">
+        <v>2018</v>
+      </c>
+      <c r="F51" t="s">
+        <v>295</v>
+      </c>
+      <c r="G51" t="s">
+        <v>296</v>
+      </c>
+      <c r="H51" t="s">
+        <v>297</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="J51" t="s">
         <v>298</v>
       </c>
-      <c r="C51" s="22" t="s">
-        <v>413</v>
-      </c>
-      <c r="D51" s="22" t="s">
+      <c r="K51" t="s">
+        <v>81</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51" t="s">
         <v>299</v>
       </c>
-      <c r="E51" s="22">
-        <v>2018</v>
-      </c>
-      <c r="F51" s="22" t="s">
-        <v>301</v>
-      </c>
-      <c r="G51" s="22" t="s">
-        <v>302</v>
-      </c>
-      <c r="H51" s="22" t="s">
-        <v>303</v>
-      </c>
-      <c r="I51" s="33" t="s">
-        <v>300</v>
-      </c>
-      <c r="J51" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="K51" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="L51" s="22">
-        <v>1</v>
-      </c>
-      <c r="M51" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="N51" s="22" t="s">
-        <v>81</v>
+      <c r="N51" t="s">
+        <v>80</v>
       </c>
       <c r="O51" t="s">
-        <v>494</v>
-      </c>
-      <c r="P51" s="22"/>
-      <c r="Q51" s="22"/>
-      <c r="R51" s="22"/>
-      <c r="S51" s="22"/>
-      <c r="T51" s="21"/>
-    </row>
-    <row r="52" spans="1:20">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="B52" t="s">
+        <v>300</v>
+      </c>
+      <c r="C52" t="s">
+        <v>402</v>
+      </c>
+      <c r="D52" t="s">
+        <v>301</v>
+      </c>
+      <c r="E52">
+        <v>2022</v>
+      </c>
+      <c r="F52" t="s">
+        <v>305</v>
+      </c>
+      <c r="G52" t="s">
+        <v>304</v>
+      </c>
+      <c r="H52" t="s">
         <v>306</v>
       </c>
-      <c r="C52" s="22" t="s">
-        <v>413</v>
-      </c>
-      <c r="D52" s="22" t="s">
-        <v>307</v>
-      </c>
-      <c r="E52" s="22">
-        <v>2022</v>
-      </c>
-      <c r="F52" s="22" t="s">
-        <v>311</v>
-      </c>
-      <c r="G52" s="22" t="s">
-        <v>310</v>
-      </c>
-      <c r="H52" s="22" t="s">
-        <v>312</v>
-      </c>
-      <c r="I52" s="33" t="s">
-        <v>308</v>
-      </c>
-      <c r="J52" s="22" t="s">
-        <v>480</v>
-      </c>
-      <c r="K52" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="L52" s="22">
+      <c r="I52" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="J52" t="s">
+        <v>469</v>
+      </c>
+      <c r="K52" t="s">
+        <v>162</v>
+      </c>
+      <c r="L52">
         <v>1</v>
       </c>
-      <c r="M52" s="22" t="s">
-        <v>309</v>
-      </c>
-      <c r="N52" s="22" t="s">
-        <v>490</v>
+      <c r="M52" t="s">
+        <v>303</v>
+      </c>
+      <c r="N52" t="s">
+        <v>479</v>
       </c>
       <c r="O52" t="s">
-        <v>494</v>
-      </c>
-      <c r="P52" s="22"/>
-      <c r="Q52" s="22"/>
-      <c r="R52" s="22"/>
-      <c r="S52" s="22"/>
-      <c r="T52" s="21"/>
-    </row>
-    <row r="53" spans="1:20">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="22" t="s">
-        <v>411</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>413</v>
-      </c>
-      <c r="D53" s="22" t="s">
-        <v>412</v>
-      </c>
-      <c r="E53" s="22">
+      <c r="B53" t="s">
+        <v>400</v>
+      </c>
+      <c r="C53" t="s">
+        <v>402</v>
+      </c>
+      <c r="D53" t="s">
+        <v>401</v>
+      </c>
+      <c r="E53">
         <v>2023</v>
       </c>
-      <c r="F53" s="22" t="s">
-        <v>453</v>
-      </c>
-      <c r="G53" s="22" t="s">
-        <v>413</v>
-      </c>
-      <c r="H53" s="22" t="s">
-        <v>417</v>
-      </c>
-      <c r="I53" s="33" t="s">
-        <v>414</v>
-      </c>
-      <c r="J53" s="22" t="s">
-        <v>415</v>
-      </c>
-      <c r="K53" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="L53" s="22">
+      <c r="F53" t="s">
+        <v>442</v>
+      </c>
+      <c r="G53" t="s">
+        <v>402</v>
+      </c>
+      <c r="H53" t="s">
+        <v>406</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="J53" t="s">
+        <v>404</v>
+      </c>
+      <c r="K53" t="s">
+        <v>162</v>
+      </c>
+      <c r="L53">
         <v>1</v>
       </c>
-      <c r="M53" s="22" t="s">
-        <v>416</v>
-      </c>
-      <c r="N53" s="22" t="s">
-        <v>81</v>
+      <c r="M53" t="s">
+        <v>405</v>
+      </c>
+      <c r="N53" t="s">
+        <v>80</v>
       </c>
       <c r="O53" t="s">
-        <v>494</v>
-      </c>
-      <c r="P53" s="22"/>
-      <c r="Q53" s="22"/>
-      <c r="R53" s="22"/>
-      <c r="S53" s="22"/>
-      <c r="T53" s="21"/>
-    </row>
-    <row r="54" spans="1:20">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="22" t="s">
-        <v>418</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>413</v>
-      </c>
-      <c r="D54" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="E54" s="22">
+      <c r="B54" t="s">
+        <v>407</v>
+      </c>
+      <c r="C54" t="s">
+        <v>402</v>
+      </c>
+      <c r="D54" t="s">
+        <v>408</v>
+      </c>
+      <c r="E54">
         <v>2023</v>
       </c>
-      <c r="F54" s="22" t="s">
-        <v>454</v>
-      </c>
-      <c r="G54" s="22" t="s">
-        <v>413</v>
-      </c>
-      <c r="H54" s="22" t="s">
-        <v>422</v>
+      <c r="F54" t="s">
+        <v>443</v>
+      </c>
+      <c r="G54" t="s">
+        <v>402</v>
+      </c>
+      <c r="H54" t="s">
+        <v>411</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="J54" s="22" t="s">
-        <v>420</v>
-      </c>
-      <c r="K54" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="J54" t="s">
+        <v>409</v>
+      </c>
+      <c r="K54" t="s">
         <v>5</v>
       </c>
-      <c r="L54" s="22">
+      <c r="L54">
         <v>1</v>
       </c>
-      <c r="M54" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="N54" s="22" t="s">
-        <v>81</v>
+      <c r="M54" t="s">
+        <v>63</v>
+      </c>
+      <c r="N54" t="s">
+        <v>80</v>
       </c>
       <c r="O54" t="s">
-        <v>494</v>
-      </c>
-      <c r="P54" s="22"/>
-      <c r="Q54" s="22"/>
-      <c r="R54" s="22"/>
-      <c r="S54" s="22"/>
-      <c r="T54" s="21"/>
-    </row>
-    <row r="55" spans="1:20">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="22" t="s">
-        <v>423</v>
-      </c>
-      <c r="C55" s="22" t="s">
-        <v>429</v>
-      </c>
-      <c r="D55" s="22" t="s">
-        <v>424</v>
-      </c>
-      <c r="E55" s="22">
+      <c r="B55" t="s">
+        <v>412</v>
+      </c>
+      <c r="C55" t="s">
+        <v>418</v>
+      </c>
+      <c r="D55" t="s">
+        <v>413</v>
+      </c>
+      <c r="E55">
         <v>2023</v>
       </c>
-      <c r="F55" s="22" t="s">
-        <v>455</v>
-      </c>
-      <c r="G55" s="22" t="s">
-        <v>413</v>
-      </c>
-      <c r="H55" s="22" t="s">
-        <v>425</v>
-      </c>
-      <c r="I55" s="33" t="s">
-        <v>426</v>
-      </c>
-      <c r="J55" s="22" t="s">
-        <v>427</v>
-      </c>
-      <c r="K55" s="22" t="s">
+      <c r="F55" t="s">
+        <v>444</v>
+      </c>
+      <c r="G55" t="s">
+        <v>402</v>
+      </c>
+      <c r="H55" t="s">
+        <v>414</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="J55" t="s">
+        <v>416</v>
+      </c>
+      <c r="K55" t="s">
         <v>5</v>
       </c>
-      <c r="L55" s="26" t="s">
-        <v>485</v>
-      </c>
-      <c r="M55" s="22" t="s">
-        <v>428</v>
-      </c>
-      <c r="N55" s="22" t="s">
-        <v>121</v>
+      <c r="L55" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="M55" t="s">
+        <v>417</v>
+      </c>
+      <c r="N55" t="s">
+        <v>118</v>
       </c>
       <c r="O55" t="s">
-        <v>494</v>
-      </c>
-      <c r="P55" s="22"/>
-      <c r="Q55" s="22"/>
-      <c r="R55" s="22"/>
-      <c r="S55" s="22"/>
-      <c r="T55" s="21"/>
-    </row>
-    <row r="56" spans="1:20">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="22" t="s">
-        <v>430</v>
-      </c>
-      <c r="C56" s="22" t="s">
-        <v>434</v>
-      </c>
-      <c r="D56" s="22" t="s">
-        <v>431</v>
-      </c>
-      <c r="E56" s="22">
+      <c r="B56" t="s">
+        <v>419</v>
+      </c>
+      <c r="C56" t="s">
+        <v>423</v>
+      </c>
+      <c r="D56" t="s">
+        <v>420</v>
+      </c>
+      <c r="E56">
         <v>2023</v>
       </c>
-      <c r="F56" s="22" t="s">
-        <v>456</v>
-      </c>
-      <c r="G56" s="22" t="s">
-        <v>413</v>
-      </c>
-      <c r="H56" s="22" t="s">
-        <v>436</v>
-      </c>
-      <c r="I56" s="33" t="s">
-        <v>432</v>
-      </c>
-      <c r="J56" s="22" t="s">
-        <v>435</v>
-      </c>
-      <c r="K56" s="22" t="s">
-        <v>433</v>
-      </c>
-      <c r="L56" s="22">
+      <c r="F56" t="s">
+        <v>445</v>
+      </c>
+      <c r="G56" t="s">
+        <v>402</v>
+      </c>
+      <c r="H56" t="s">
+        <v>425</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="J56" t="s">
+        <v>424</v>
+      </c>
+      <c r="K56" t="s">
+        <v>422</v>
+      </c>
+      <c r="L56">
         <v>2</v>
       </c>
-      <c r="M56" s="22" t="s">
-        <v>472</v>
-      </c>
-      <c r="N56" s="22" t="s">
-        <v>490</v>
-      </c>
-      <c r="O56" s="22" t="s">
-        <v>413</v>
-      </c>
-      <c r="P56" s="22"/>
-      <c r="Q56" s="22"/>
-      <c r="R56" s="22"/>
-      <c r="S56" s="22"/>
-      <c r="T56" s="21"/>
-    </row>
-    <row r="57" spans="1:20">
+      <c r="M56" t="s">
+        <v>461</v>
+      </c>
+      <c r="N56" t="s">
+        <v>479</v>
+      </c>
+      <c r="O56" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="C57" s="22" t="s">
-        <v>413</v>
-      </c>
-      <c r="D57" s="22" t="s">
-        <v>438</v>
-      </c>
-      <c r="E57" s="22">
+      <c r="B57" t="s">
+        <v>426</v>
+      </c>
+      <c r="C57" t="s">
+        <v>402</v>
+      </c>
+      <c r="D57" t="s">
+        <v>427</v>
+      </c>
+      <c r="E57">
         <v>2023</v>
       </c>
-      <c r="F57" s="22" t="s">
-        <v>458</v>
-      </c>
-      <c r="G57" s="22" t="s">
-        <v>413</v>
-      </c>
-      <c r="H57" s="22" t="s">
-        <v>442</v>
-      </c>
-      <c r="I57" s="33" t="s">
-        <v>439</v>
-      </c>
-      <c r="J57" s="22" t="s">
-        <v>441</v>
-      </c>
-      <c r="K57" s="22" t="s">
-        <v>470</v>
-      </c>
-      <c r="L57" s="22">
+      <c r="F57" t="s">
+        <v>447</v>
+      </c>
+      <c r="G57" t="s">
+        <v>402</v>
+      </c>
+      <c r="H57" t="s">
+        <v>431</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="J57" t="s">
+        <v>430</v>
+      </c>
+      <c r="K57" t="s">
+        <v>459</v>
+      </c>
+      <c r="L57">
         <v>1</v>
       </c>
-      <c r="M57" s="22" t="s">
-        <v>440</v>
-      </c>
-      <c r="N57" s="22" t="s">
-        <v>81</v>
+      <c r="M57" t="s">
+        <v>429</v>
+      </c>
+      <c r="N57" t="s">
+        <v>80</v>
       </c>
       <c r="O57" t="s">
-        <v>495</v>
-      </c>
-      <c r="P57" s="22"/>
-      <c r="Q57" s="22"/>
-      <c r="R57" s="22"/>
-      <c r="S57" s="22"/>
-      <c r="T57" s="21"/>
-    </row>
-    <row r="58" spans="1:20">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="22" t="s">
-        <v>443</v>
-      </c>
-      <c r="C58" s="22" t="s">
-        <v>413</v>
-      </c>
-      <c r="D58" s="22" t="s">
-        <v>445</v>
-      </c>
-      <c r="E58" s="22">
+      <c r="B58" t="s">
+        <v>432</v>
+      </c>
+      <c r="C58" t="s">
+        <v>402</v>
+      </c>
+      <c r="D58" t="s">
+        <v>434</v>
+      </c>
+      <c r="E58">
         <v>2023</v>
       </c>
-      <c r="F58" s="22" t="s">
-        <v>457</v>
-      </c>
-      <c r="G58" s="22" t="s">
-        <v>413</v>
-      </c>
-      <c r="H58" s="22" t="s">
-        <v>313</v>
-      </c>
-      <c r="I58" s="33" t="s">
-        <v>444</v>
-      </c>
-      <c r="J58" s="22" t="s">
-        <v>447</v>
-      </c>
-      <c r="K58" s="22" t="s">
+      <c r="F58" t="s">
+        <v>446</v>
+      </c>
+      <c r="G58" t="s">
+        <v>402</v>
+      </c>
+      <c r="H58" t="s">
+        <v>307</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="J58" t="s">
+        <v>436</v>
+      </c>
+      <c r="K58" t="s">
         <v>5</v>
       </c>
-      <c r="L58" s="22">
+      <c r="L58">
         <v>3</v>
       </c>
-      <c r="M58" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="N58" s="22" t="s">
-        <v>446</v>
+      <c r="M58" t="s">
+        <v>287</v>
+      </c>
+      <c r="N58" t="s">
+        <v>435</v>
       </c>
       <c r="O58" t="s">
-        <v>494</v>
-      </c>
-      <c r="P58" s="22"/>
-      <c r="Q58" s="22"/>
-      <c r="R58" s="22"/>
-      <c r="S58" s="22"/>
-      <c r="T58" s="21"/>
-    </row>
-    <row r="59" spans="1:20">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="22" t="s">
+      <c r="B59" t="s">
+        <v>437</v>
+      </c>
+      <c r="C59" t="s">
+        <v>438</v>
+      </c>
+      <c r="D59" t="s">
+        <v>439</v>
+      </c>
+      <c r="E59">
+        <v>2023</v>
+      </c>
+      <c r="F59" t="s">
         <v>448</v>
       </c>
-      <c r="C59" s="22" t="s">
-        <v>449</v>
-      </c>
-      <c r="D59" s="22" t="s">
-        <v>450</v>
-      </c>
-      <c r="E59" s="22">
-        <v>2023</v>
-      </c>
-      <c r="F59" s="22" t="s">
-        <v>459</v>
-      </c>
-      <c r="G59" s="22" t="s">
-        <v>413</v>
-      </c>
-      <c r="H59" s="22" t="s">
+      <c r="G59" t="s">
+        <v>402</v>
+      </c>
+      <c r="H59" t="s">
+        <v>411</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="J59" t="s">
+        <v>441</v>
+      </c>
+      <c r="K59" t="s">
         <v>422</v>
       </c>
-      <c r="I59" s="33" t="s">
-        <v>451</v>
-      </c>
-      <c r="J59" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="K59" s="22" t="s">
-        <v>433</v>
-      </c>
-      <c r="L59" s="22">
+      <c r="L59">
         <v>1</v>
       </c>
-      <c r="M59" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="N59" s="22" t="s">
-        <v>81</v>
+      <c r="M59" t="s">
+        <v>151</v>
+      </c>
+      <c r="N59" t="s">
+        <v>80</v>
       </c>
       <c r="O59" t="s">
-        <v>495</v>
-      </c>
-      <c r="P59" s="22"/>
-      <c r="Q59" s="22"/>
-      <c r="R59" s="22"/>
-      <c r="S59" s="22"/>
-      <c r="T59" s="21"/>
-    </row>
-    <row r="60" spans="1:20">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="22" t="s">
+      <c r="B60" t="s">
+        <v>449</v>
+      </c>
+      <c r="C60" t="s">
+        <v>402</v>
+      </c>
+      <c r="D60" t="s">
+        <v>450</v>
+      </c>
+      <c r="E60">
+        <v>2023</v>
+      </c>
+      <c r="F60" t="s">
         <v>460</v>
       </c>
-      <c r="C60" s="22" t="s">
-        <v>413</v>
-      </c>
-      <c r="D60" s="22" t="s">
-        <v>461</v>
-      </c>
-      <c r="E60" s="22">
-        <v>2023</v>
-      </c>
-      <c r="F60" s="22" t="s">
-        <v>471</v>
-      </c>
-      <c r="G60" s="22" t="s">
-        <v>413</v>
-      </c>
-      <c r="H60" s="22" t="s">
-        <v>464</v>
-      </c>
-      <c r="I60" s="33" t="s">
-        <v>463</v>
-      </c>
-      <c r="J60" s="22" t="s">
-        <v>462</v>
-      </c>
-      <c r="K60" s="22" t="s">
+      <c r="G60" t="s">
+        <v>402</v>
+      </c>
+      <c r="H60" t="s">
+        <v>453</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="J60" t="s">
+        <v>451</v>
+      </c>
+      <c r="K60" t="s">
         <v>5</v>
       </c>
-      <c r="L60" s="22">
+      <c r="L60">
         <v>1</v>
       </c>
-      <c r="M60" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="N60" s="22" t="s">
-        <v>81</v>
+      <c r="M60" t="s">
+        <v>287</v>
+      </c>
+      <c r="N60" t="s">
+        <v>80</v>
       </c>
       <c r="O60" t="s">
-        <v>494</v>
-      </c>
-      <c r="P60" s="22"/>
-      <c r="Q60" s="22"/>
-      <c r="R60" s="22"/>
-      <c r="S60" s="22"/>
-      <c r="T60" s="21"/>
-    </row>
-    <row r="61" spans="1:20">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="C61" s="22" t="s">
-        <v>413</v>
-      </c>
-      <c r="D61" s="22" t="s">
-        <v>466</v>
-      </c>
-      <c r="E61" s="22">
+      <c r="B61" t="s">
+        <v>454</v>
+      </c>
+      <c r="C61" t="s">
+        <v>402</v>
+      </c>
+      <c r="D61" t="s">
+        <v>455</v>
+      </c>
+      <c r="E61">
         <v>2023</v>
       </c>
-      <c r="F61" s="22" t="s">
-        <v>468</v>
-      </c>
-      <c r="G61" s="22" t="s">
-        <v>413</v>
-      </c>
-      <c r="H61" s="22"/>
+      <c r="F61" t="s">
+        <v>457</v>
+      </c>
+      <c r="G61" t="s">
+        <v>402</v>
+      </c>
       <c r="I61" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="J61" s="22" t="s">
-        <v>467</v>
-      </c>
-      <c r="K61" s="22" t="s">
+        <v>458</v>
+      </c>
+      <c r="J61" t="s">
+        <v>456</v>
+      </c>
+      <c r="K61" t="s">
         <v>5</v>
       </c>
-      <c r="L61" s="22">
+      <c r="L61">
         <v>1</v>
       </c>
-      <c r="M61" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="N61" s="22" t="s">
-        <v>81</v>
+      <c r="M61" t="s">
+        <v>63</v>
+      </c>
+      <c r="N61" t="s">
+        <v>80</v>
       </c>
       <c r="O61" t="s">
-        <v>494</v>
-      </c>
-      <c r="P61" s="22"/>
-      <c r="Q61" s="22"/>
-      <c r="R61" s="22"/>
-      <c r="S61" s="22"/>
-      <c r="T61" s="21"/>
-    </row>
-    <row r="62" spans="1:20">
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="33"/>
-      <c r="J62" s="22"/>
-      <c r="K62" s="22"/>
-      <c r="L62" s="22"/>
-      <c r="M62" s="22"/>
-      <c r="N62" s="22"/>
-      <c r="O62" s="22"/>
-      <c r="P62" s="22"/>
-      <c r="Q62" s="22"/>
-      <c r="R62" s="22"/>
-      <c r="S62" s="22"/>
-      <c r="T62" s="21"/>
-    </row>
-    <row r="63" spans="1:20">
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="33"/>
-      <c r="J63" s="22"/>
-      <c r="K63" s="22"/>
-      <c r="L63" s="22"/>
-      <c r="M63" s="22"/>
-      <c r="N63" s="22"/>
-      <c r="O63" s="22"/>
-      <c r="P63" s="22"/>
-      <c r="Q63" s="22"/>
-      <c r="R63" s="22"/>
-      <c r="S63" s="22"/>
-      <c r="T63" s="21"/>
-    </row>
-    <row r="64" spans="1:20">
-      <c r="B64" s="21"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="33"/>
-      <c r="J64" s="21"/>
-      <c r="K64" s="21"/>
-      <c r="L64" s="21"/>
-      <c r="M64" s="21"/>
-      <c r="N64" s="21"/>
-      <c r="O64" s="21"/>
-      <c r="P64" s="21"/>
-      <c r="Q64" s="21"/>
-      <c r="R64" s="21"/>
-      <c r="S64" s="21"/>
-      <c r="T64" s="21"/>
-    </row>
-    <row r="65" spans="2:20">
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="21"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="33"/>
-      <c r="J65" s="21"/>
-      <c r="K65" s="21"/>
-      <c r="L65" s="21"/>
-      <c r="M65" s="21"/>
-      <c r="N65" s="21"/>
-      <c r="O65" s="21"/>
-      <c r="P65" s="21"/>
-      <c r="Q65" s="21"/>
-      <c r="R65" s="21"/>
-      <c r="S65" s="21"/>
-      <c r="T65" s="21"/>
-    </row>
-    <row r="66" spans="2:20">
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="33"/>
-      <c r="J66" s="21"/>
-      <c r="K66" s="21"/>
-      <c r="L66" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="M66" s="21"/>
-      <c r="N66" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="O66" s="21"/>
-      <c r="P66" s="21"/>
-      <c r="Q66" s="21"/>
-      <c r="R66" s="21"/>
-      <c r="S66" s="21"/>
-      <c r="T66" s="21"/>
-    </row>
-    <row r="67" spans="2:20">
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="21"/>
-      <c r="H67" s="21"/>
-      <c r="I67" s="33"/>
-      <c r="J67" s="21"/>
-      <c r="K67" s="21"/>
-      <c r="L67" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="M67" s="21"/>
-      <c r="N67" s="21"/>
-      <c r="O67" s="21"/>
-      <c r="P67" s="21"/>
-      <c r="Q67" s="21"/>
-      <c r="R67" s="21"/>
-      <c r="S67" s="21"/>
-      <c r="T67" s="21"/>
-    </row>
-    <row r="68" spans="2:20">
-      <c r="B68" s="21"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="21"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="33"/>
-      <c r="J68" s="21"/>
-      <c r="K68" s="21"/>
-      <c r="L68" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="M68" s="21"/>
-      <c r="N68" s="21" t="s">
-        <v>403</v>
-      </c>
-      <c r="O68" s="21"/>
-      <c r="P68" s="21"/>
-      <c r="Q68" s="21"/>
-      <c r="R68" s="21"/>
-      <c r="S68" s="21"/>
-      <c r="T68" s="21"/>
-    </row>
-    <row r="69" spans="2:20">
-      <c r="B69" s="21"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="21"/>
-      <c r="H69" s="21"/>
-      <c r="I69" s="33"/>
-      <c r="J69" s="21"/>
-      <c r="K69" s="21"/>
-      <c r="L69" s="21" t="s">
-        <v>315</v>
-      </c>
-      <c r="M69" s="21"/>
-      <c r="N69" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="O69" s="21"/>
-      <c r="P69" s="21"/>
-      <c r="Q69" s="21"/>
-      <c r="R69" s="21"/>
-      <c r="S69" s="21"/>
-      <c r="T69" s="21"/>
-    </row>
-    <row r="70" spans="2:20">
-      <c r="B70" s="21"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="21"/>
-      <c r="I70" s="33"/>
-      <c r="J70" s="21"/>
-      <c r="K70" s="21"/>
-      <c r="L70" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="M70" s="21"/>
-      <c r="N70" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="O70" s="21"/>
-      <c r="P70" s="21"/>
-      <c r="Q70" s="21"/>
-      <c r="R70" s="21"/>
-      <c r="S70" s="21"/>
-      <c r="T70" s="21"/>
-    </row>
-    <row r="71" spans="2:20">
-      <c r="B71" s="21"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="21"/>
-      <c r="H71" s="21"/>
-      <c r="I71" s="21"/>
-      <c r="J71" s="21"/>
-      <c r="K71" s="21"/>
-      <c r="L71" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="M71" s="21"/>
-      <c r="N71" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="O71" s="21"/>
-      <c r="P71" s="21"/>
-      <c r="Q71" s="21"/>
-      <c r="R71" s="21"/>
-      <c r="S71" s="21"/>
-      <c r="T71" s="21"/>
-    </row>
-    <row r="72" spans="2:20">
-      <c r="B72" s="21"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="21"/>
-      <c r="H72" s="21"/>
-      <c r="I72" s="21"/>
-      <c r="J72" s="21"/>
-      <c r="K72" s="21"/>
-      <c r="L72" s="21"/>
-      <c r="M72" s="21"/>
-      <c r="N72" s="21"/>
-      <c r="O72" s="21"/>
-      <c r="P72" s="21"/>
-      <c r="Q72" s="21"/>
-      <c r="R72" s="21"/>
-      <c r="S72" s="21"/>
-      <c r="T72" s="21"/>
-    </row>
-    <row r="73" spans="2:20">
-      <c r="B73" s="21"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="21"/>
-      <c r="I73" s="21"/>
-      <c r="J73" s="21"/>
-      <c r="K73" s="21"/>
-      <c r="L73" s="21" t="s">
-        <v>383</v>
-      </c>
-      <c r="M73" s="21"/>
-      <c r="N73" s="21"/>
-      <c r="O73" s="21"/>
-      <c r="P73" s="21"/>
-      <c r="Q73" s="21"/>
-      <c r="R73" s="21"/>
-      <c r="S73" s="21"/>
-      <c r="T73" s="21"/>
-    </row>
-    <row r="74" spans="2:20">
-      <c r="B74" s="21"/>
-      <c r="C74" s="21"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="21"/>
-      <c r="H74" s="21"/>
-      <c r="I74" s="21"/>
-      <c r="J74" s="21"/>
-      <c r="K74" s="21"/>
-      <c r="L74" s="21"/>
-      <c r="M74" s="21"/>
-      <c r="N74" s="21"/>
-      <c r="O74" s="21"/>
-      <c r="P74" s="21"/>
-      <c r="Q74" s="21"/>
-      <c r="R74" s="21"/>
-      <c r="S74" s="21"/>
-      <c r="T74" s="21"/>
-    </row>
-    <row r="75" spans="2:20">
-      <c r="B75" s="21"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="21"/>
-      <c r="H75" s="21"/>
-      <c r="I75" s="21"/>
-      <c r="J75" s="21"/>
-      <c r="K75" s="21"/>
-      <c r="L75" s="21"/>
-      <c r="M75" s="21"/>
-      <c r="N75" s="21"/>
-      <c r="O75" s="21"/>
-      <c r="P75" s="21"/>
-      <c r="Q75" s="21"/>
-      <c r="R75" s="21"/>
-      <c r="S75" s="21"/>
-      <c r="T75" s="21"/>
-    </row>
-    <row r="76" spans="2:20">
-      <c r="B76" s="21"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="21"/>
-      <c r="I76" s="21"/>
-      <c r="J76" s="21"/>
-      <c r="K76" s="21"/>
-      <c r="L76" s="21"/>
-      <c r="M76" s="21"/>
-      <c r="N76" s="21"/>
-      <c r="O76" s="21"/>
-      <c r="P76" s="21"/>
-      <c r="Q76" s="21"/>
-      <c r="R76" s="21"/>
-      <c r="S76" s="21"/>
-      <c r="T76" s="21"/>
-    </row>
-    <row r="77" spans="2:20">
-      <c r="B77" s="21"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="21"/>
-      <c r="I77" s="21"/>
-      <c r="J77" s="21"/>
-      <c r="K77" s="21"/>
-      <c r="L77" s="21"/>
-      <c r="M77" s="21"/>
-      <c r="N77" s="21"/>
-      <c r="O77" s="21"/>
-      <c r="P77" s="21"/>
-      <c r="Q77" s="21"/>
-      <c r="R77" s="21"/>
-      <c r="S77" s="21"/>
-      <c r="T77" s="21"/>
+        <v>483</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="I62" s="3"/>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="I63" s="3"/>
+    </row>
+    <row r="64" spans="1:18">
+      <c r="I64" s="3"/>
+    </row>
+    <row r="65" spans="9:9">
+      <c r="I65" s="3"/>
+    </row>
+    <row r="66" spans="9:9">
+      <c r="I66" s="3"/>
+    </row>
+    <row r="67" spans="9:9">
+      <c r="I67" s="3"/>
+    </row>
+    <row r="68" spans="9:9">
+      <c r="I68" s="3"/>
+    </row>
+    <row r="69" spans="9:9">
+      <c r="I69" s="3"/>
+    </row>
+    <row r="70" spans="9:9">
+      <c r="I70" s="3"/>
     </row>
     <row r="84" spans="2:23">
       <c r="B84" s="3"/>

--- a/Categorization of selected studies.xlsx
+++ b/Categorization of selected studies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef56829152d776a3/Área de Trabalho/CVM_Monografia/GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{086FB94C-5A45-4DBB-8E6D-FE49547BBA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{831D19BC-0CFD-46F2-8AD2-2AE5CE5067EB}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{086FB94C-5A45-4DBB-8E6D-FE49547BBA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BAC6527-216D-4AF3-9DD1-C1B3579EA48F}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15720" tabRatio="729" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="486">
   <si>
     <t>Title</t>
   </si>
@@ -1431,14 +1431,61 @@
     <t>Visualization recommendation work has focused solely on scoring visualizations based on the underlying dataset, and not the actual user and their past visualization feedback. These systems recommend the same visualizations for every user, despite that the underlying user interests, intent, and visualization preferences are likely to be fundamentally different, yet vitally important. In this work, we formally introduce the problem of personalized visualization recommendation and present a generic learning framework for solving it. In particular, we focus on recommending visualizations personalized for each individual user based on their past visualization interactions (e.g., viewed, clicked, manually created) along with the data from those visualizations. More importantly, the framework can learn from visualizations relevant to other users, even if the visualizations are generated from completely different datasets. Experiments demonstrate the effectiveness of the approach as it leads to higher quality visualization recommendations tailored to the specific user intent and preferences. To support research on this new problem, we release our user-centric visualization corpus consisting of 17.4k users exploring 94k datasets with 2.3 million attributes and 32k user-generated visualizations.</t>
   </si>
   <si>
+    <t>Machine learning is a promising approach to visualization recommendation due to its high scalability and representational power. Researchers can create a neural network to predict visualizations from input data by training it over a corpus of datasets and visualization examples. However, these machine learning models can reflect trends in their training data that may negatively affect their performance. Our research project aims to address training bias in machine learning visualization recommendation systems by identifying trends in the training data through statistical analysis.</t>
+  </si>
+  <si>
+    <t>Data visualization plays an important role in the analysis of data and the identification of insights and characteristics within the dataset. Current visualization tools suffer from limitations with respect to the number of dimensions that can be displayed simultaneously. This often results in the inability to highlight hidden patterns or trends, affecting the analysts’ decision-making capabilities. In this scenario, it becomes imperative to propose systems that recommend useful insights to guide users to understand and explore data more efficiently. Addressing this problem, we propose a rule-based visualization recommendation(VizRec) system which caters for the research goal of providing an intelligent assistant that can guide users directly to relevant insights in the data. Our proposed VizRec system automates aspects of visualization design and recommends visualizations incorporating both the data characteristics and the diverse tasks representing users’ goals and intents using a knowledge-based rule engine. To ensure the correctness of knowledge-based rules and the dynamic nature of the rule engine, a formalization theory is proposed. We implemented our proposed model into a working tool for the exploration of complex production data generated from the manufacturing processes for the German excellence cluster “Internet of Production”. Our tool was able to generate recommendations capable of visualizing data insights regardless of the domain it is used in. The existing systems face several shortcomings ranging from the number of dimensions they can handle to the limited number of supported visualizations. The recommended visualizations derived from our proposed system were able to mitigate such challenges by adopting a generic rule-based approach incorporating visualizations handling multidimensional data. We evaluated our system in multiple fields, including the engineering domain, where production systems datasets are used to achieve user-intended tasks and gain valuable insights.</t>
+  </si>
+  <si>
+    <t>ARXIV (Springer, researchGate)</t>
+  </si>
+  <si>
+    <t>ARXIV (Researchgate, semanticscholar)</t>
+  </si>
+  <si>
+    <t>Search bases</t>
+  </si>
+  <si>
+    <t>Type of Contribuition</t>
+  </si>
+  <si>
+    <t>1, 3</t>
+  </si>
+  <si>
+    <t>2, 4</t>
+  </si>
+  <si>
+    <t>ACM Transactions on the Web</t>
+  </si>
+  <si>
+    <t>IEEE Computer Graphics and Applications</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>North America, Asia</t>
+  </si>
+  <si>
+    <t>Europe, South America</t>
+  </si>
+  <si>
+    <t>Automatic / semiautomatic recommendation</t>
+  </si>
+  <si>
+    <t>Automatic</t>
+  </si>
+  <si>
+    <t>Semiautomatic</t>
+  </si>
+  <si>
+    <t>Paper ID</t>
+  </si>
+  <si>
+    <t>1, 4</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>This paper proposes a visualization recommender system for tabular data given visualization intents (e.g., “population trends in Italy” and “smartphone market share”). The proposed method predicts the most suitable </t>
     </r>
     <r>
@@ -1484,66 +1531,12 @@
       <t> (columns used for visualization) based on statistical features extracted from the tabular data as well as semantic features derived from the visualization intent. To predict the appropriate visualization type, we propose a bi-directional attention (BiDA) model that identifies important table columns using the visualization intent and important parts of the intent using the table headers. To determine the visualized columns, we employ a pre-trained neural language model to encode both visualization intents and table columns and predict which columns are the most likely to be used for visualization. Since there was no available dataset for this task, we created a new dataset consisting of over 100 K tables and their appropriate visualization. Experiments revealed that our proposed methods accurately predicted suitable visualization types and visualized columns.</t>
     </r>
   </si>
-  <si>
-    <t>Machine learning is a promising approach to visualization recommendation due to its high scalability and representational power. Researchers can create a neural network to predict visualizations from input data by training it over a corpus of datasets and visualization examples. However, these machine learning models can reflect trends in their training data that may negatively affect their performance. Our research project aims to address training bias in machine learning visualization recommendation systems by identifying trends in the training data through statistical analysis.</t>
-  </si>
-  <si>
-    <t>Data visualization plays an important role in the analysis of data and the identification of insights and characteristics within the dataset. Current visualization tools suffer from limitations with respect to the number of dimensions that can be displayed simultaneously. This often results in the inability to highlight hidden patterns or trends, affecting the analysts’ decision-making capabilities. In this scenario, it becomes imperative to propose systems that recommend useful insights to guide users to understand and explore data more efficiently. Addressing this problem, we propose a rule-based visualization recommendation(VizRec) system which caters for the research goal of providing an intelligent assistant that can guide users directly to relevant insights in the data. Our proposed VizRec system automates aspects of visualization design and recommends visualizations incorporating both the data characteristics and the diverse tasks representing users’ goals and intents using a knowledge-based rule engine. To ensure the correctness of knowledge-based rules and the dynamic nature of the rule engine, a formalization theory is proposed. We implemented our proposed model into a working tool for the exploration of complex production data generated from the manufacturing processes for the German excellence cluster “Internet of Production”. Our tool was able to generate recommendations capable of visualizing data insights regardless of the domain it is used in. The existing systems face several shortcomings ranging from the number of dimensions they can handle to the limited number of supported visualizations. The recommended visualizations derived from our proposed system were able to mitigate such challenges by adopting a generic rule-based approach incorporating visualizations handling multidimensional data. We evaluated our system in multiple fields, including the engineering domain, where production systems datasets are used to achieve user-intended tasks and gain valuable insights.</t>
-  </si>
-  <si>
-    <t>ARXIV (Springer, researchGate)</t>
-  </si>
-  <si>
-    <t>ARXIV (Researchgate, semanticscholar)</t>
-  </si>
-  <si>
-    <t>Search bases</t>
-  </si>
-  <si>
-    <t>Type of Contribuition</t>
-  </si>
-  <si>
-    <t>1, 3</t>
-  </si>
-  <si>
-    <t>2, 4</t>
-  </si>
-  <si>
-    <t>1, 2, 4</t>
-  </si>
-  <si>
-    <t>ACM Transactions on the Web</t>
-  </si>
-  <si>
-    <t>IEEE Computer Graphics and Applications</t>
-  </si>
-  <si>
-    <t>Europe</t>
-  </si>
-  <si>
-    <t>North America, Asia</t>
-  </si>
-  <si>
-    <t>Europe, South America</t>
-  </si>
-  <si>
-    <t>Automatic / semiautomatic recommendation</t>
-  </si>
-  <si>
-    <t>Automatic</t>
-  </si>
-  <si>
-    <t>Semiautomatic</t>
-  </si>
-  <si>
-    <t>Paper ID</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1605,12 +1598,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1630,6 +1617,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1680,7 +1679,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1692,13 +1691,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1724,24 +1720,33 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1771,6 +1776,14 @@
 </file>
 
 <file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -2041,34 +2054,35 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="76.33203125" customWidth="1"/>
-    <col min="3" max="3" width="41.109375" customWidth="1"/>
-    <col min="4" max="4" width="38.21875" customWidth="1"/>
-    <col min="6" max="6" width="56.21875" customWidth="1"/>
-    <col min="7" max="7" width="33" customWidth="1"/>
-    <col min="8" max="8" width="74.5546875" customWidth="1"/>
-    <col min="9" max="9" width="47.33203125" customWidth="1"/>
-    <col min="10" max="10" width="62.6640625" customWidth="1"/>
-    <col min="11" max="11" width="23.44140625" customWidth="1"/>
-    <col min="12" max="12" width="16.88671875" customWidth="1"/>
-    <col min="13" max="13" width="32.77734375" customWidth="1"/>
-    <col min="14" max="14" width="20.33203125" customWidth="1"/>
-    <col min="15" max="15" width="39.6640625" customWidth="1"/>
+    <col min="3" max="3" width="51.44140625" customWidth="1"/>
+    <col min="4" max="4" width="78.21875" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="113.44140625" customWidth="1"/>
+    <col min="7" max="7" width="60.109375" customWidth="1"/>
+    <col min="8" max="8" width="68.109375" customWidth="1"/>
+    <col min="9" max="9" width="46.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="59.33203125" customWidth="1"/>
+    <col min="11" max="11" width="20.21875" customWidth="1"/>
+    <col min="12" max="12" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="91.21875" customWidth="1"/>
+    <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.5" customHeight="1">
-      <c r="A1" s="8" t="s">
-        <v>485</v>
+      <c r="A1" s="22" t="s">
+        <v>483</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>376</v>
       </c>
       <c r="D1" s="25" t="s">
@@ -2093,19 +2107,19 @@
         <v>3</v>
       </c>
       <c r="K1" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="L1" s="27" t="s">
         <v>472</v>
       </c>
-      <c r="L1" s="27" t="s">
-        <v>473</v>
-      </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="O1" s="8" t="s">
-        <v>482</v>
+      <c r="O1" s="28" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15.6" customHeight="1">
@@ -2115,7 +2129,7 @@
       <c r="B2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="21" t="s">
         <v>377</v>
       </c>
       <c r="D2" t="s">
@@ -2152,7 +2166,7 @@
         <v>146</v>
       </c>
       <c r="O2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
@@ -2170,7 +2184,7 @@
       <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="29" t="s">
         <v>378</v>
       </c>
       <c r="D3" t="s">
@@ -2197,8 +2211,8 @@
       <c r="K3" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="24" t="s">
-        <v>474</v>
+      <c r="L3" s="23" t="s">
+        <v>473</v>
       </c>
       <c r="M3" t="s">
         <v>310</v>
@@ -2207,10 +2221,10 @@
         <v>146</v>
       </c>
       <c r="O3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="P3" s="6"/>
-      <c r="Q3" s="12"/>
+      <c r="Q3" s="9"/>
       <c r="S3" s="6"/>
     </row>
     <row r="4" spans="1:24" ht="15" customHeight="1">
@@ -2257,7 +2271,7 @@
         <v>80</v>
       </c>
       <c r="O4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -2273,13 +2287,13 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="30" t="s">
         <v>380</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="24" t="s">
         <v>60</v>
       </c>
       <c r="E5">
@@ -2313,7 +2327,7 @@
         <v>146</v>
       </c>
       <c r="O5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -2323,7 +2337,7 @@
       <c r="B6" t="s">
         <v>35</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>381</v>
       </c>
       <c r="D6" t="s">
@@ -2350,8 +2364,8 @@
       <c r="K6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="24" t="s">
-        <v>475</v>
+      <c r="L6" s="23" t="s">
+        <v>474</v>
       </c>
       <c r="M6" t="s">
         <v>63</v>
@@ -2370,7 +2384,7 @@
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>382</v>
       </c>
       <c r="D7" t="s">
@@ -2407,7 +2421,7 @@
         <v>80</v>
       </c>
       <c r="O7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
@@ -2421,7 +2435,7 @@
       <c r="B8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>383</v>
       </c>
       <c r="D8" t="s">
@@ -2458,9 +2472,9 @@
         <v>146</v>
       </c>
       <c r="O8" t="s">
-        <v>402</v>
-      </c>
-      <c r="P8" s="13"/>
+        <v>481</v>
+      </c>
+      <c r="P8" s="10"/>
     </row>
     <row r="9" spans="1:24">
       <c r="A9">
@@ -2469,7 +2483,7 @@
       <c r="B9" t="s">
         <v>44</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>402</v>
       </c>
       <c r="D9" t="s">
@@ -2506,7 +2520,7 @@
         <v>146</v>
       </c>
       <c r="O9" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -2516,7 +2530,7 @@
       <c r="B10" t="s">
         <v>65</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>402</v>
       </c>
       <c r="D10" t="s">
@@ -2553,9 +2567,9 @@
         <v>80</v>
       </c>
       <c r="O10" t="s">
-        <v>483</v>
-      </c>
-      <c r="P10" s="12"/>
+        <v>481</v>
+      </c>
+      <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:24">
       <c r="A11">
@@ -2564,7 +2578,7 @@
       <c r="B11" t="s">
         <v>68</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>402</v>
       </c>
       <c r="D11" t="s">
@@ -2601,7 +2615,7 @@
         <v>80</v>
       </c>
       <c r="O11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -2611,7 +2625,7 @@
       <c r="B12" t="s">
         <v>32</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>402</v>
       </c>
       <c r="D12" t="s">
@@ -2648,9 +2662,9 @@
         <v>80</v>
       </c>
       <c r="O12" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q12" s="8"/>
+        <v>481</v>
+      </c>
+      <c r="Q12" s="7"/>
     </row>
     <row r="13" spans="1:24">
       <c r="A13">
@@ -2659,7 +2673,7 @@
       <c r="B13" t="s">
         <v>83</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>384</v>
       </c>
       <c r="D13" t="s">
@@ -2696,7 +2710,7 @@
         <v>146</v>
       </c>
       <c r="O13" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -2743,7 +2757,7 @@
         <v>146</v>
       </c>
       <c r="O14" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -2753,7 +2767,7 @@
       <c r="B15" t="s">
         <v>90</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>402</v>
       </c>
       <c r="D15" t="s">
@@ -2790,7 +2804,7 @@
         <v>146</v>
       </c>
       <c r="O15" t="s">
-        <v>402</v>
+        <v>482</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -2800,7 +2814,7 @@
       <c r="B16" t="s">
         <v>340</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>402</v>
       </c>
       <c r="D16" t="s">
@@ -2827,17 +2841,17 @@
       <c r="K16" t="s">
         <v>81</v>
       </c>
-      <c r="L16" s="24" t="s">
-        <v>474</v>
+      <c r="L16" s="23" t="s">
+        <v>473</v>
       </c>
       <c r="M16" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="N16" t="s">
         <v>146</v>
       </c>
       <c r="O16" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="16.5" customHeight="1">
@@ -2847,7 +2861,7 @@
       <c r="B17" t="s">
         <v>344</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>402</v>
       </c>
       <c r="D17" t="s">
@@ -2881,10 +2895,10 @@
         <v>343</v>
       </c>
       <c r="N17" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="O17" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2894,7 +2908,7 @@
       <c r="B18" t="s">
         <v>132</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>386</v>
       </c>
       <c r="D18" t="s">
@@ -2931,7 +2945,7 @@
         <v>146</v>
       </c>
       <c r="O18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2941,7 +2955,7 @@
       <c r="B19" t="s">
         <v>112</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>402</v>
       </c>
       <c r="D19" t="s">
@@ -2978,7 +2992,7 @@
         <v>146</v>
       </c>
       <c r="O19" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2988,7 +3002,7 @@
       <c r="B20" t="s">
         <v>353</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>402</v>
       </c>
       <c r="D20" t="s">
@@ -3022,10 +3036,10 @@
         <v>95</v>
       </c>
       <c r="N20" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="O20" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.6" customHeight="1">
@@ -3035,7 +3049,7 @@
       <c r="B21" t="s">
         <v>117</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="3" t="s">
         <v>402</v>
       </c>
       <c r="D21" t="s">
@@ -3072,7 +3086,7 @@
         <v>118</v>
       </c>
       <c r="O21" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -3082,7 +3096,7 @@
       <c r="B22" t="s">
         <v>98</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>387</v>
       </c>
       <c r="D22" t="s">
@@ -3126,13 +3140,13 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="D23" s="11" t="s">
+      <c r="C23" s="30" t="s">
+        <v>402</v>
+      </c>
+      <c r="D23" s="24" t="s">
         <v>94</v>
       </c>
       <c r="E23">
@@ -3141,7 +3155,7 @@
       <c r="F23" t="s">
         <v>131</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="24" t="s">
         <v>402</v>
       </c>
       <c r="H23" t="s">
@@ -3163,10 +3177,10 @@
         <v>374</v>
       </c>
       <c r="N23" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="O23" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -3176,7 +3190,7 @@
       <c r="B24" t="s">
         <v>133</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="3" t="s">
         <v>402</v>
       </c>
       <c r="D24" t="s">
@@ -3210,10 +3224,10 @@
         <v>135</v>
       </c>
       <c r="N24" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="O24" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -3223,7 +3237,7 @@
       <c r="B25" t="s">
         <v>138</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="21" t="s">
         <v>388</v>
       </c>
       <c r="D25" t="s">
@@ -3260,18 +3274,18 @@
         <v>146</v>
       </c>
       <c r="O25" t="s">
-        <v>484</v>
-      </c>
-      <c r="P25" s="14"/>
+        <v>482</v>
+      </c>
+      <c r="P25" s="11"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="3" t="s">
         <v>402</v>
       </c>
       <c r="D26" t="s">
@@ -3292,7 +3306,7 @@
       <c r="I26" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="J26" s="21" t="s">
+      <c r="J26" s="18" t="s">
         <v>465</v>
       </c>
       <c r="K26" t="s">
@@ -3308,7 +3322,7 @@
         <v>146</v>
       </c>
       <c r="O26" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -3318,7 +3332,7 @@
       <c r="B27" t="s">
         <v>148</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="3" t="s">
         <v>389</v>
       </c>
       <c r="D27" t="s">
@@ -3355,7 +3369,7 @@
         <v>80</v>
       </c>
       <c r="O27" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -3365,7 +3379,7 @@
       <c r="B28" t="s">
         <v>155</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="3" t="s">
         <v>402</v>
       </c>
       <c r="D28" t="s">
@@ -3399,10 +3413,10 @@
         <v>63</v>
       </c>
       <c r="N28" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="O28" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -3412,7 +3426,7 @@
       <c r="B29" t="s">
         <v>160</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="3" t="s">
         <v>390</v>
       </c>
       <c r="D29" t="s">
@@ -3449,7 +3463,7 @@
         <v>80</v>
       </c>
       <c r="O29" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -3459,7 +3473,7 @@
       <c r="B30" t="s">
         <v>167</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="3" t="s">
         <v>402</v>
       </c>
       <c r="D30" t="s">
@@ -3477,7 +3491,7 @@
       <c r="H30" t="s">
         <v>172</v>
       </c>
-      <c r="I30" s="28" t="s">
+      <c r="I30" s="21" t="s">
         <v>169</v>
       </c>
       <c r="J30" t="s">
@@ -3493,23 +3507,23 @@
         <v>168</v>
       </c>
       <c r="N30" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="O30" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="24" t="s">
         <v>337</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="D31" s="11" t="s">
+      <c r="C31" s="30" t="s">
+        <v>402</v>
+      </c>
+      <c r="D31" s="24" t="s">
         <v>174</v>
       </c>
       <c r="E31">
@@ -3533,8 +3547,8 @@
       <c r="K31" t="s">
         <v>152</v>
       </c>
-      <c r="L31" s="24" t="s">
-        <v>474</v>
+      <c r="L31" s="23" t="s">
+        <v>473</v>
       </c>
       <c r="M31" t="s">
         <v>151</v>
@@ -3543,7 +3557,7 @@
         <v>146</v>
       </c>
       <c r="O31" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -3553,7 +3567,7 @@
       <c r="B32" t="s">
         <v>177</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="3" t="s">
         <v>402</v>
       </c>
       <c r="D32" t="s">
@@ -3578,7 +3592,7 @@
         <v>179</v>
       </c>
       <c r="K32" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -3587,10 +3601,10 @@
         <v>151</v>
       </c>
       <c r="N32" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="O32" t="s">
-        <v>402</v>
+        <v>482</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3600,7 +3614,7 @@
       <c r="B33" t="s">
         <v>181</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="3" t="s">
         <v>391</v>
       </c>
       <c r="D33" t="s">
@@ -3637,7 +3651,7 @@
         <v>146</v>
       </c>
       <c r="O33" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3647,7 +3661,7 @@
       <c r="B34" t="s">
         <v>190</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="3" t="s">
         <v>392</v>
       </c>
       <c r="D34" t="s">
@@ -3678,13 +3692,13 @@
         <v>1</v>
       </c>
       <c r="M34" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="N34" t="s">
         <v>146</v>
       </c>
       <c r="O34" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3694,7 +3708,7 @@
       <c r="B35" t="s">
         <v>25</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D35" t="s">
@@ -3731,7 +3745,7 @@
         <v>146</v>
       </c>
       <c r="O35" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
@@ -3744,7 +3758,7 @@
       <c r="B36" t="s">
         <v>200</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="3" t="s">
         <v>395</v>
       </c>
       <c r="D36" t="s">
@@ -3781,7 +3795,7 @@
         <v>146</v>
       </c>
       <c r="O36" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15" customHeight="1">
@@ -3791,7 +3805,7 @@
       <c r="B37" t="s">
         <v>205</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="3" t="s">
         <v>402</v>
       </c>
       <c r="D37" t="s">
@@ -3809,7 +3823,7 @@
       <c r="H37" t="s">
         <v>208</v>
       </c>
-      <c r="I37" s="28" t="s">
+      <c r="I37" s="21" t="s">
         <v>209</v>
       </c>
       <c r="J37" t="s">
@@ -3828,7 +3842,7 @@
         <v>146</v>
       </c>
       <c r="O37" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3838,7 +3852,7 @@
       <c r="B38" t="s">
         <v>211</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="3" t="s">
         <v>402</v>
       </c>
       <c r="D38" t="s">
@@ -3856,7 +3870,7 @@
       <c r="H38" t="s">
         <v>216</v>
       </c>
-      <c r="I38" s="28" t="s">
+      <c r="I38" s="21" t="s">
         <v>212</v>
       </c>
       <c r="J38" t="s">
@@ -3885,7 +3899,7 @@
       <c r="B39" t="s">
         <v>217</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="3" t="s">
         <v>393</v>
       </c>
       <c r="D39" t="s">
@@ -3922,7 +3936,7 @@
         <v>223</v>
       </c>
       <c r="O39" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3932,7 +3946,7 @@
       <c r="B40" t="s">
         <v>224</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="3" t="s">
         <v>402</v>
       </c>
       <c r="D40" t="s">
@@ -3969,7 +3983,7 @@
         <v>80</v>
       </c>
       <c r="O40" t="s">
-        <v>402</v>
+        <v>482</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3979,7 +3993,7 @@
       <c r="B41" t="s">
         <v>232</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="3" t="s">
         <v>402</v>
       </c>
       <c r="D41" t="s">
@@ -3997,14 +4011,14 @@
       <c r="H41" t="s">
         <v>238</v>
       </c>
-      <c r="I41" s="28" t="s">
+      <c r="I41" s="21" t="s">
         <v>235</v>
       </c>
       <c r="J41" t="s">
         <v>236</v>
       </c>
       <c r="K41" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L41">
         <v>1</v>
@@ -4016,7 +4030,7 @@
         <v>80</v>
       </c>
       <c r="O41" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -4026,7 +4040,7 @@
       <c r="B42" t="s">
         <v>239</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="3" t="s">
         <v>402</v>
       </c>
       <c r="D42" t="s">
@@ -4063,7 +4077,7 @@
         <v>223</v>
       </c>
       <c r="O42" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -4073,7 +4087,7 @@
       <c r="B43" t="s">
         <v>247</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="3" t="s">
         <v>402</v>
       </c>
       <c r="D43" t="s">
@@ -4091,17 +4105,17 @@
       <c r="H43" t="s">
         <v>252</v>
       </c>
-      <c r="I43" s="28" t="s">
+      <c r="I43" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="J43" s="22" t="s">
-        <v>467</v>
+      <c r="J43" s="19" t="s">
+        <v>485</v>
       </c>
       <c r="K43" t="s">
         <v>162</v>
       </c>
-      <c r="L43" s="24" t="s">
-        <v>474</v>
+      <c r="L43" s="23" t="s">
+        <v>473</v>
       </c>
       <c r="M43" t="s">
         <v>249</v>
@@ -4110,7 +4124,7 @@
         <v>80</v>
       </c>
       <c r="O43" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -4120,7 +4134,7 @@
       <c r="B44" t="s">
         <v>254</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="4" t="s">
         <v>397</v>
       </c>
       <c r="D44" t="s">
@@ -4138,7 +4152,7 @@
       <c r="H44" t="s">
         <v>260</v>
       </c>
-      <c r="I44" s="28" t="s">
+      <c r="I44" s="21" t="s">
         <v>256</v>
       </c>
       <c r="J44" t="s">
@@ -4157,7 +4171,7 @@
         <v>146</v>
       </c>
       <c r="O44" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -4167,7 +4181,7 @@
       <c r="B45" t="s">
         <v>261</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="3" t="s">
         <v>402</v>
       </c>
       <c r="D45" t="s">
@@ -4188,8 +4202,8 @@
       <c r="I45" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="J45" s="23" t="s">
-        <v>468</v>
+      <c r="J45" s="20" t="s">
+        <v>467</v>
       </c>
       <c r="K45" t="s">
         <v>399</v>
@@ -4204,7 +4218,7 @@
         <v>146</v>
       </c>
       <c r="O45" t="s">
-        <v>402</v>
+        <v>481</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4214,7 +4228,7 @@
       <c r="B46" t="s">
         <v>265</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="3" t="s">
         <v>402</v>
       </c>
       <c r="D46" t="s">
@@ -4241,8 +4255,8 @@
       <c r="K46" t="s">
         <v>81</v>
       </c>
-      <c r="L46" s="24" t="s">
-        <v>476</v>
+      <c r="L46" s="23" t="s">
+        <v>484</v>
       </c>
       <c r="M46" t="s">
         <v>268</v>
@@ -4251,7 +4265,7 @@
         <v>80</v>
       </c>
       <c r="O46" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4261,7 +4275,7 @@
       <c r="B47" t="s">
         <v>40</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="3" t="s">
         <v>398</v>
       </c>
       <c r="D47" t="s">
@@ -4298,7 +4312,7 @@
         <v>146</v>
       </c>
       <c r="O47" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4308,7 +4322,7 @@
       <c r="B48" t="s">
         <v>276</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="3" t="s">
         <v>396</v>
       </c>
       <c r="D48" t="s">
@@ -4326,7 +4340,7 @@
       <c r="H48" t="s">
         <v>285</v>
       </c>
-      <c r="I48" s="28" t="s">
+      <c r="I48" s="21" t="s">
         <v>278</v>
       </c>
       <c r="J48" t="s">
@@ -4345,17 +4359,17 @@
         <v>80</v>
       </c>
       <c r="O48" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>42</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="3" t="s">
         <v>402</v>
       </c>
       <c r="D49" t="s">
@@ -4392,20 +4406,20 @@
         <v>80</v>
       </c>
       <c r="O49" t="s">
-        <v>483</v>
-      </c>
-      <c r="P49" s="15"/>
-      <c r="Q49" s="15"/>
-      <c r="R49" s="15"/>
-    </row>
-    <row r="50" spans="1:18">
+        <v>481</v>
+      </c>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+    </row>
+    <row r="50" spans="1:22">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>15</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="3" t="s">
         <v>402</v>
       </c>
       <c r="D50" t="s">
@@ -4442,17 +4456,17 @@
         <v>80</v>
       </c>
       <c r="O50" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>292</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="3" t="s">
         <v>402</v>
       </c>
       <c r="D51" t="s">
@@ -4489,17 +4503,17 @@
         <v>80</v>
       </c>
       <c r="O51" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>300</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="3" t="s">
         <v>402</v>
       </c>
       <c r="D52" t="s">
@@ -4521,7 +4535,7 @@
         <v>302</v>
       </c>
       <c r="J52" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K52" t="s">
         <v>162</v>
@@ -4533,20 +4547,20 @@
         <v>303</v>
       </c>
       <c r="N52" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="O52" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>400</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="3" t="s">
         <v>402</v>
       </c>
       <c r="D53" t="s">
@@ -4583,17 +4597,17 @@
         <v>80</v>
       </c>
       <c r="O53" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>407</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="3" t="s">
         <v>402</v>
       </c>
       <c r="D54" t="s">
@@ -4630,17 +4644,17 @@
         <v>80</v>
       </c>
       <c r="O54" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>412</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="3" t="s">
         <v>418</v>
       </c>
       <c r="D55" t="s">
@@ -4667,8 +4681,8 @@
       <c r="K55" t="s">
         <v>5</v>
       </c>
-      <c r="L55" s="24" t="s">
-        <v>474</v>
+      <c r="L55" s="23">
+        <v>3</v>
       </c>
       <c r="M55" t="s">
         <v>417</v>
@@ -4677,17 +4691,17 @@
         <v>118</v>
       </c>
       <c r="O55" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>419</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="3" t="s">
         <v>423</v>
       </c>
       <c r="D56" t="s">
@@ -4721,20 +4735,20 @@
         <v>461</v>
       </c>
       <c r="N56" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="O56" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:22">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>426</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="3" t="s">
         <v>402</v>
       </c>
       <c r="D57" t="s">
@@ -4771,17 +4785,24 @@
         <v>80</v>
       </c>
       <c r="O57" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18">
+        <v>482</v>
+      </c>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="6"/>
+      <c r="V57" s="6"/>
+    </row>
+    <row r="58" spans="1:22">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>432</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="3" t="s">
         <v>402</v>
       </c>
       <c r="D58" t="s">
@@ -4818,17 +4839,24 @@
         <v>435</v>
       </c>
       <c r="O58" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18">
+        <v>481</v>
+      </c>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="6"/>
+      <c r="V58" s="6"/>
+    </row>
+    <row r="59" spans="1:22">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>437</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="3" t="s">
         <v>438</v>
       </c>
       <c r="D59" t="s">
@@ -4865,17 +4893,24 @@
         <v>80</v>
       </c>
       <c r="O59" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18">
+        <v>482</v>
+      </c>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6"/>
+      <c r="U59" s="6"/>
+      <c r="V59" s="6"/>
+    </row>
+    <row r="60" spans="1:22">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>449</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="3" t="s">
         <v>402</v>
       </c>
       <c r="D60" t="s">
@@ -4912,17 +4947,17 @@
         <v>80</v>
       </c>
       <c r="O60" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>454</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="3" t="s">
         <v>402</v>
       </c>
       <c r="D61" t="s">
@@ -4956,16 +4991,19 @@
         <v>80</v>
       </c>
       <c r="O61" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22">
+      <c r="C62" s="3"/>
       <c r="I62" s="3"/>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:22">
+      <c r="C63" s="3"/>
       <c r="I63" s="3"/>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:22">
+      <c r="C64" s="3"/>
       <c r="I64" s="3"/>
     </row>
     <row r="65" spans="9:9">
@@ -4990,13 +5028,13 @@
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
-      <c r="E84" s="16"/>
+      <c r="E84" s="13"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="5"/>
-      <c r="I84" s="9"/>
-      <c r="J84" s="17"/>
-      <c r="K84" s="16"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="14"/>
+      <c r="K84" s="13"/>
       <c r="P84" s="3"/>
       <c r="Q84" s="3"/>
       <c r="R84" s="3"/>
@@ -5010,13 +5048,13 @@
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
-      <c r="E85" s="16"/>
+      <c r="E85" s="13"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
       <c r="I85" s="4"/>
       <c r="J85" s="3"/>
-      <c r="K85" s="16"/>
+      <c r="K85" s="13"/>
       <c r="P85" s="3"/>
       <c r="Q85" s="3"/>
       <c r="R85" s="3"/>
@@ -5026,36 +5064,36 @@
       <c r="W85" s="3"/>
     </row>
     <row r="86" spans="2:23">
-      <c r="B86" s="18"/>
-      <c r="C86" s="18"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="15"/>
       <c r="D86" s="3"/>
-      <c r="E86" s="16"/>
+      <c r="E86" s="13"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
       <c r="I86" s="4"/>
       <c r="J86" s="3"/>
-      <c r="K86" s="16"/>
+      <c r="K86" s="13"/>
     </row>
     <row r="89" spans="2:23">
       <c r="E89" s="1"/>
-      <c r="H89" s="19"/>
+      <c r="H89" s="16"/>
       <c r="I89" s="2"/>
       <c r="K89" s="1"/>
     </row>
     <row r="90" spans="2:23" ht="17.399999999999999">
       <c r="E90" s="1"/>
       <c r="I90" s="2"/>
-      <c r="J90" s="20"/>
+      <c r="J90" s="17"/>
       <c r="K90" s="1"/>
     </row>
     <row r="91" spans="2:23">
       <c r="E91" s="1"/>
       <c r="I91" s="2"/>
       <c r="K91" s="1"/>
-      <c r="P91" s="15"/>
-      <c r="Q91" s="15"/>
-      <c r="R91" s="15"/>
+      <c r="P91" s="12"/>
+      <c r="Q91" s="12"/>
+      <c r="R91" s="12"/>
     </row>
     <row r="92" spans="2:23">
       <c r="E92" s="1"/>
